--- a/IMPAcTB_Lung_Option1/IMPAcTB_CFU_Op1_D90_Lung.xlsx
+++ b/IMPAcTB_Lung_Option1/IMPAcTB_CFU_Op1_D90_Lung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/rstor-henao_lab/Pablo/CFU_Pipeline/IMPAcTB_Lung_Option1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44B83D30-897E-734D-90F1-D93FFE7AC191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025E0BC-FC49-974B-A3B0-FC6D515D52F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="500" windowWidth="34840" windowHeight="28300" activeTab="1" xr2:uid="{1BBA8D1C-B972-0C41-ACCB-38D29157F936}"/>
+    <workbookView xWindow="5440" yWindow="4540" windowWidth="34840" windowHeight="28300" activeTab="1" xr2:uid="{1BBA8D1C-B972-0C41-ACCB-38D29157F936}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="31">
   <si>
     <t>organ</t>
   </si>
@@ -129,6 +128,9 @@
   <si>
     <t>male</t>
   </si>
+  <si>
+    <t>dil_9</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,7 +196,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -569,10 +570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E650AE8-407E-D946-9C61-A0F3494F6485}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="A2" sqref="A2:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +582,7 @@
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -627,8 +628,11 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -647,8 +651,15 @@
       <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J2" s="1">
         <v>5</v>
       </c>
@@ -661,10 +672,17 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -683,8 +701,15 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J3" s="1">
         <v>17</v>
       </c>
@@ -697,10 +722,17 @@
       <c r="M3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -719,8 +751,15 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="1">
         <v>14</v>
       </c>
@@ -733,10 +772,17 @@
       <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -755,8 +801,15 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J5" s="1">
         <v>2</v>
       </c>
@@ -769,10 +822,17 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -791,8 +851,15 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
@@ -805,10 +872,17 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -822,21 +896,43 @@
         <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -850,29 +946,43 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="J8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -883,32 +993,46 @@
         <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
       </c>
       <c r="L9" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>2</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -922,18 +1046,25 @@
         <v>27</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J10" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -941,10 +1072,17 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -958,18 +1096,25 @@
         <v>27</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J11" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K11" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
@@ -977,10 +1122,17 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -994,19 +1146,25 @@
         <v>27</v>
       </c>
       <c r="E12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J12" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -1014,10 +1172,17 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1028,21 +1193,28 @@
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -1050,10 +1222,17 @@
       <c r="M13" s="1">
         <v>0</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1067,18 +1246,25 @@
         <v>28</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J14" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1086,10 +1272,17 @@
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1103,15 +1296,22 @@
         <v>28</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J15" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1122,10 +1322,17 @@
       <c r="M15" s="1">
         <v>0</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1139,15 +1346,22 @@
         <v>28</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1158,10 +1372,17 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1172,16 +1393,23 @@
         <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E17" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J17" s="1">
         <v>4</v>
       </c>
@@ -1194,10 +1422,17 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1211,54 +1446,75 @@
         <v>23</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J18" s="1">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
         <v>4</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J19" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -1266,10 +1522,17 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1280,24 +1543,46 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="1">
+        <v>12</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1308,21 +1593,28 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J21" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -1330,10 +1622,17 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1347,18 +1646,25 @@
         <v>25</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J22" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
@@ -1366,10 +1672,17 @@
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1380,18 +1693,25 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J23" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1402,10 +1722,17 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1416,24 +1743,46 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1444,18 +1793,25 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J25" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1466,10 +1822,17 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1483,29 +1846,43 @@
         <v>27</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="J26" s="1">
-        <v>27</v>
+      <c r="G26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1519,18 +1896,25 @@
         <v>27</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J27" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
         <v>0</v>
@@ -1538,10 +1922,17 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1552,21 +1943,28 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J28" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
@@ -1574,10 +1972,17 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1588,32 +1993,46 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>26</v>
+      <c r="G29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="1">
+        <v>12</v>
       </c>
       <c r="K29" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1624,21 +2043,28 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J30" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="1">
         <v>0</v>
@@ -1646,141 +2072,15 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="J31" s="1">
-        <v>9</v>
-      </c>
-      <c r="K31" s="1">
-        <v>2</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="J32" s="1">
-        <v>12</v>
-      </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="J33" s="1">
-        <v>19</v>
-      </c>
-      <c r="K33" s="1">
-        <v>3</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0</v>
-      </c>
-      <c r="M33" s="1">
-        <v>0</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1866,16 +2166,16 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>10</v>
       </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
         <v>0</v>
       </c>
       <c r="M2" s="1"/>
@@ -1903,16 +2203,16 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>43</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>8</v>
       </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
         <v>0</v>
       </c>
       <c r="M3" s="1"/>
@@ -1940,16 +2240,16 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>33</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>2</v>
       </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
         <v>0</v>
       </c>
       <c r="M4" s="1"/>
@@ -1977,16 +2277,16 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>29</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="M5" s="1"/>
@@ -2014,16 +2314,16 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>7</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <v>0</v>
       </c>
       <c r="M6" s="1"/>
@@ -2051,10 +2351,10 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -2080,16 +2380,16 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>17</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
         <v>0</v>
       </c>
       <c r="M8" s="1"/>
@@ -2117,16 +2417,16 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="5">
         <v>18</v>
       </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
         <v>0</v>
       </c>
       <c r="M9" s="1"/>
@@ -2154,16 +2454,16 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>41</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>3</v>
       </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <v>0</v>
       </c>
       <c r="M10" s="1"/>
@@ -2191,16 +2491,16 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="6">
-        <v>22</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="I11" s="5">
+        <v>22</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
         <v>0</v>
       </c>
       <c r="M11" s="1"/>
@@ -2228,16 +2528,16 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>38</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>9</v>
       </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
         <v>0</v>
       </c>
       <c r="M12" s="1"/>
@@ -2265,16 +2565,16 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>63</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>12</v>
       </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
         <v>0</v>
       </c>
       <c r="M13" s="1"/>
@@ -2302,16 +2602,16 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>7</v>
       </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
         <v>0</v>
       </c>
       <c r="M14" s="1"/>
@@ -2339,16 +2639,16 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>25</v>
       </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
         <v>0</v>
       </c>
       <c r="M15" s="1"/>
@@ -2376,16 +2676,16 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>31</v>
       </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
         <v>0</v>
       </c>
       <c r="M16" s="1"/>
@@ -2413,16 +2713,16 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>18</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <v>3</v>
       </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
         <v>0</v>
       </c>
       <c r="M17" s="1"/>
@@ -2450,16 +2750,16 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="6">
-        <v>22</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="I18" s="5">
+        <v>22</v>
+      </c>
+      <c r="J18" s="5">
         <v>4</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>3</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>0</v>
       </c>
       <c r="M18" s="1"/>
@@ -2487,16 +2787,16 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>2</v>
       </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
         <v>0</v>
       </c>
       <c r="M19" s="1"/>
@@ -2524,10 +2824,10 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2553,16 +2853,16 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>9</v>
       </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
         <v>0</v>
       </c>
       <c r="M21" s="1"/>
@@ -2590,16 +2890,16 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>31</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <v>6</v>
       </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
         <v>0</v>
       </c>
       <c r="M22" s="1"/>
@@ -2627,16 +2927,16 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>2</v>
       </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
@@ -2664,10 +2964,10 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -2693,16 +2993,16 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>32</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>5</v>
       </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
         <v>0</v>
       </c>
       <c r="M25" s="1"/>
@@ -2730,16 +3030,16 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>67</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>10</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>2</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>0</v>
       </c>
       <c r="M26" s="1"/>
@@ -2767,16 +3067,16 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="6">
+      <c r="I27" s="5">
         <v>11</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>2</v>
       </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
         <v>0</v>
       </c>
       <c r="M27" s="1"/>
@@ -2804,16 +3104,16 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>6</v>
       </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
         <v>0</v>
       </c>
       <c r="M28" s="1"/>
@@ -2841,16 +3141,16 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>87</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>6</v>
       </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
         <v>0</v>
       </c>
       <c r="M29" s="1"/>
@@ -2878,16 +3178,16 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>19</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>6</v>
       </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
         <v>0</v>
       </c>
       <c r="M30" s="1"/>
@@ -2915,16 +3215,16 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>34</v>
       </c>
-      <c r="J31" s="6">
-        <v>1</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
         <v>0</v>
       </c>
       <c r="M31" s="1"/>
@@ -2952,16 +3252,16 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>31</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>4</v>
       </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6">
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
         <v>0</v>
       </c>
       <c r="M32" s="1"/>
@@ -2989,16 +3289,16 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>23</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>5</v>
       </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
         <v>0</v>
       </c>
       <c r="M33" s="1"/>
@@ -3024,10 +3324,10 @@
       <c r="F34" t="s">
         <v>29</v>
       </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
